--- a/output/exracted_tables/stats_full_exp_protocol.xlsx
+++ b/output/exracted_tables/stats_full_exp_protocol.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>F3</t>
         </is>
       </c>
       <c r="C3" s="1" t="n"/>
@@ -643,7 +643,7 @@
       <c r="E3" s="1" t="n"/>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>F6</t>
         </is>
       </c>
       <c r="G3" s="1" t="n"/>
@@ -651,7 +651,7 @@
       <c r="I3" s="1" t="n"/>
       <c r="J3" s="1" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="K3" s="1" t="n"/>
@@ -659,7 +659,7 @@
       <c r="M3" s="1" t="n"/>
       <c r="N3" s="1" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="O3" s="1" t="n"/>
@@ -667,7 +667,7 @@
       <c r="Q3" s="1" t="n"/>
       <c r="R3" s="1" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>F3</t>
         </is>
       </c>
       <c r="S3" s="1" t="n"/>
@@ -675,7 +675,7 @@
       <c r="U3" s="1" t="n"/>
       <c r="V3" s="1" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>F6</t>
         </is>
       </c>
       <c r="W3" s="1" t="n"/>
@@ -683,7 +683,7 @@
       <c r="Y3" s="1" t="n"/>
       <c r="Z3" s="1" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="AA3" s="1" t="n"/>
@@ -691,7 +691,7 @@
       <c r="AC3" s="1" t="n"/>
       <c r="AD3" s="1" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="AE3" s="1" t="n"/>
@@ -699,7 +699,7 @@
       <c r="AG3" s="1" t="n"/>
       <c r="AH3" s="1" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>F3</t>
         </is>
       </c>
       <c r="AI3" s="1" t="n"/>
@@ -707,7 +707,7 @@
       <c r="AK3" s="1" t="n"/>
       <c r="AL3" s="1" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>F6</t>
         </is>
       </c>
       <c r="AM3" s="1" t="n"/>
@@ -715,7 +715,7 @@
       <c r="AO3" s="1" t="n"/>
       <c r="AP3" s="1" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="AQ3" s="1" t="n"/>
@@ -723,7 +723,7 @@
       <c r="AS3" s="1" t="n"/>
       <c r="AT3" s="1" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="AU3" s="1" t="n"/>
@@ -731,7 +731,7 @@
       <c r="AW3" s="1" t="n"/>
       <c r="AX3" s="1" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>F3</t>
         </is>
       </c>
       <c r="AY3" s="1" t="n"/>
@@ -739,7 +739,7 @@
       <c r="BA3" s="1" t="n"/>
       <c r="BB3" s="1" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>F6</t>
         </is>
       </c>
       <c r="BC3" s="1" t="n"/>
@@ -747,7 +747,7 @@
       <c r="BE3" s="1" t="n"/>
       <c r="BF3" s="1" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="BG3" s="1" t="n"/>
@@ -755,7 +755,7 @@
       <c r="BI3" s="1" t="n"/>
       <c r="BJ3" s="1" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="BK3" s="1" t="n"/>
@@ -1092,7 +1092,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Time Window</t>
+          <t>Time Sacle</t>
         </is>
       </c>
     </row>
